--- a/StudentData/Tutorials/Unit4/4.2.3/conversion_rate.xlsx
+++ b/StudentData/Tutorials/Unit4/4.2.3/conversion_rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 3\Tutorial 3.3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Tutorials/Unit4/4.2.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{13547538-8685-438A-9A1A-DF252B90D74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D055C8DB-4C48-495A-B6D8-D7D75B5A196B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{887347D2-0BE3-485E-93AB-47EEC244D59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ConversionData" sheetId="1" r:id="rId1"/>
@@ -36,37 +36,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Converted</t>
-  </si>
-  <si>
-    <t>hypothesized proportion</t>
-  </si>
-  <si>
-    <t>sample size</t>
-  </si>
-  <si>
-    <t>p-hat</t>
-  </si>
-  <si>
-    <t>standard error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z test statistic </t>
-  </si>
-  <si>
-    <t>absolute value z test statistic</t>
-  </si>
-  <si>
-    <t>p-value (two-tailed test)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,539 +406,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:1">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:1">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:1">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>1</v>
       </c>
@@ -970,15 +928,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
@@ -990,6 +939,15 @@
     <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,13 +1215,45 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF57B88A-F097-4A73-BF7B-D5D604A85134}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F7ACAA-C36D-4B2D-96DA-B93221901059}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5F7ACAA-C36D-4B2D-96DA-B93221901059}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF57B88A-F097-4A73-BF7B-D5D604A85134}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{050CAADE-3230-49BD-92BE-9D76E6F3AC2F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{050CAADE-3230-49BD-92BE-9D76E6F3AC2F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" enabled="0" method="" siteId="{7f03627e-adeb-48d8-ae7e-238ae8a0adc7}" removed="1"/>
+</clbl:labelList>
 </file>